--- a/prueba_kpmg_tecnica/Prueba técnica Ingeniero de Datos KPMG.xlsx
+++ b/prueba_kpmg_tecnica/Prueba técnica Ingeniero de Datos KPMG.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://onedrive-global.kpmg.com/personal/pcadena_kpmg_com/Documents/Documents/Pruebas FY24/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://correounivalleeduco-my.sharepoint.com/personal/penaloza_juan_correounivalle_edu_co/Documents/Docs_OneDrive/ian-peña-cientificos/CIBERSEGURIDAD_SERES_ETICOS/graphs_gif/classical_trajectory/prueba_kpmg_tecnica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="8_{65608BB3-F720-49F6-9DD1-6724409B5B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3016EF78-9D82-4CFB-BC11-895677157F52}"/>
+  <xr:revisionPtr revIDLastSave="173" documentId="8_{65608BB3-F720-49F6-9DD1-6724409B5B5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C23C4E13-4015-4758-AA5C-2BCF61A02C0B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{50E83DC7-B595-6D40-A9CB-C79216B5794C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Defina el concepto de escalabilidad en el contexto de Azure y detalle los métodos implementados para lograrla eficazmente</t>
   </si>
@@ -141,13 +141,456 @@
   </si>
   <si>
     <t>Como evidencia adjunte en el correo el código y/o el pantallazo de la consulta ejecutada y la tabla de salida</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Es la capacidad de un sistema o infraestructura para manejar los cambios en la carga de trabajo, sin comprometer el rendimiento o la eficiencia. La escalabilidad es fundamental para adaptarse a las variaciones en la demanda de los usuarios y maximizar los recursos sin desperdicio. Azure permite escalabilidad vertical (scale-up), escalabilidad horizontal (scale-out) y Autoscaling.     Las operaciones de escalado pueden clasificarse como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>estáticas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (ajustes programados diariamente para manejar patrones de carga típicos), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>automáticas</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (un proceso que se activa cuando se cumplen ciertas condiciones) o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>manuales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (una acción de escalado puntual realizada por un operador en respuesta a un aumento de carga inesperado).     Tanto el escalado vertical como el horizontal pueden lograrse utilizando cualquiera de estos métodos. Sin embargo, implementar el escalado vertical automático requiere consideraciones adicionales.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Azure Data Lake Storage Gen2 es un conjunto que agrega funcionalidades adicionales al servicio de Azure Blob storage. El objetivo es permitir la escalabilidad  y la seguridad a nivel de archivo en un lago de datos; sin que se vea afectada la disponibilidad. El caso de uso es para una necesidad de un almacén masivo (petabytes) de datos semi-estructurados o no estructurados (llamados </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>blobs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> en el contexto de Azure) pero que posea un tipo de jerarquía interna en el sistema de archivos (para alta disponibilidad y simplificada administración del Lago de Datos)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Previo a añadir el nuevo desarrollo a la misma VM, es recomendable mover las aplicaciones a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>Azure App Service</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, donde se puede alojar código Python en entornos separados sin gestionar directamente la infraestructura. Esto reduce la complejidad de la administración y permite la escalabilidad. En caso de que se deba alojar todos los desarrollos se pueden presentar desafíos de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">conflictos de dependencias, Gestión de seguridad y acceso </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">a las aplicaciones, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>monitoreo</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>; además de testing y rendimiento de la VM</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Los datos estructurados están organizados en un formato fijo, como las </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>BD relacionales</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">. los datos semiestructurados no tienen una estructura tan rígida, pero cuentan con cierta organización, usualmente en formato de etiquetas o key-value, como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>JSON</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> o </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>XML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> files. Los datos no estructurados, como </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>textos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>imágenes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>videos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> o audios, carecen de un formato o esquema predefinido</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Las BD relacionales tienen un esquema estructurado y predefinido (tabular). No Relacional: No usa un esquema de tablas rígido, permitiendo mayor flexibilidad en la organización de los datos. Los datos se almacenan en formatos como documentos (JSON, BSON), key-value, grafos o columnas. Las bases de datos no relacionales pueden manejar grandes volúmenes de información de forma rápida y escalable. Ejemplos incluyen MongoDB (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>documentos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>), Redis (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>key-value</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>) y Neo4j (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>grafos</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sí. Es la cantidad de recursos computacionales necesarios para ejecutar un algoritmo en función del tamaño de su entrada. Existen dos tipos principales de complejidad: temporal (tiempo de ejecución) y espacial (uso de memoria).  Para medir la complejidad algorítmica, se utiliza la notación Big O (O), que describe el comportamiento del tiempo o espacio de un algoritmo en función de su entrada. Por ejemplo, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>O(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> indica tiempo constante, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>O(n)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> tiempo lineal, O(n^2) tiempo cuadrático, y así sucesivamente.</t>
+    </r>
+  </si>
+  <si>
+    <t>Extract, Transform, Load (Extracción, Transformación, Carga). Es un proceso en la gestión de datos que consiste en extraer datos de diversas fuentes, transformarlos en un formato adecuado y cargarlos en un sistema de almacenamiento o base de datos para su análisis. empresa de retail utiliza ETL para consolidar datos de ventas provenientes de tiendas físicas, su sitio web y una aplicación móvil. Primero, extrae los datos de cada plataforma, los transforma para unificar el formato (por ejemplo, unificando las monedas y eliminando duplicados) y luego los carga en un data warehouse. Este proceso permite a la empresa analizar las ventas en tiempo real y ajustar estrategias de marketing o inventario</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ingesta de Datos: Esta etapa implica la recopilación de datos provenientes de diversas fuentes (bases de datos, sensores, aplicaciones, redes sociales, etc.) y su integración en el sistema de procesamiento. Los datos pueden ser ingeridos en tiempo real o en lotes, dependiendo de los requisitos de la aplicación.                                                                                                               </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>Almacenamiento de Datos:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Una vez que los datos han sido capturados, deben almacenarse de manera segura y eficiente.                                                                                                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>Procesamiento y Análisis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> En esta fase, los datos son transformados, limpiados y analizados para extraer información útil. Aquí se aplican técnicas de procesamiento en paralelo, utilizando herramientas como Apache Spark o MapReduce.                                                                             </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t>Visualización y Consumo de Datos:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Finalmente, los resultados procesados son presentados a los usuarios o integrados en sistemas de negocio. Esto puede incluir visualizaciones gráficas, reportes o dashboards, que permiten interpretar los datos y tomar decisiones informadas.</t>
+    </r>
+  </si>
+  <si>
+    <t>Columna1</t>
+  </si>
+  <si>
+    <t>Columna2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,6 +639,14 @@
       <name val="Aptos"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -205,7 +656,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -228,11 +679,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -243,9 +707,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -262,11 +723,98 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Aptos"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -328,8 +876,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C466F99F-4B10-4906-B598-61EC0CA3D750}" name="Tabla1" displayName="Tabla1" ref="B2:C13" totalsRowShown="0" tableBorderDxfId="2">
+  <autoFilter ref="B2:C13" xr:uid="{C466F99F-4B10-4906-B598-61EC0CA3D750}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0FA79673-DD01-4D20-BACF-014BB940BFC9}" name="Columna1" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{57AADB44-6AF9-440F-A8C4-DF337CA1BB61}" name="Columna2" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -627,81 +1186,106 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDF696C2-A856-0F44-9481-62396F2F6460}">
   <dimension ref="B2:C36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.25" style="2"/>
     <col min="2" max="2" width="87.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="75.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="82.875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="11.25" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+    <row r="5" spans="2:3" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="2:3" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C7" s="4"/>
-    </row>
-    <row r="8" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="4"/>
-    </row>
-    <row r="9" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="136.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4"/>
-    </row>
-    <row r="12" spans="2:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+      <c r="C12" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="204.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="4"/>
-    </row>
-    <row r="15" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B15" s="10" t="s">
+      <c r="C13" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="21" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="2:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -716,26 +1300,26 @@
       </c>
     </row>
     <row r="21" spans="2:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="2:2" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="175.9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="2:2" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -746,25 +1330,25 @@
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
+      <c r="B29" s="5"/>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="2:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
+      <c r="B33" s="5"/>
     </row>
     <row r="34" spans="2:2" ht="34.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
@@ -780,6 +1364,9 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
